--- a/biology/Médecine/Cicatrisation_assistée_par_laser/Cicatrisation_assistée_par_laser.xlsx
+++ b/biology/Médecine/Cicatrisation_assistée_par_laser/Cicatrisation_assistée_par_laser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cicatrisation_assist%C3%A9e_par_laser</t>
+          <t>Cicatrisation_assistée_par_laser</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cicatrisation assistée par laser (ou LASH pour « Laser-Assisted Skin Healing ») permet aujourd’hui d’améliorer le confort postopératoire des patients, de minimiser les risques de complications cicatricielles et de réduire les cicatrices chirurgicales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cicatrisation_assist%C3%A9e_par_laser</t>
+          <t>Cicatrisation_assistée_par_laser</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Le traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement vise à stimuler les mécanismes naturels de régénération et de réparation de la peau initiés dès la fermeture de plaie soit au tout début du processus de cicatrisation.
 À cette étape, le laser délivre un stress thermique contrôlé sur la zone de peau à traiter qui permet de réduire l’inflammation, favoriser la cicatrisation, renforcer la résistance de la plaie et diminuer le risque de cicatrice résiduelle.
-Ainsi, en orientant précocement la réponse tissulaire, cette méthode d’aide à la cicatrisation permet de prévenir les défauts de régénération et de réparation tissulaire à l’origine des problèmes de cicatrisation[1].
+Ainsi, en orientant précocement la réponse tissulaire, cette méthode d’aide à la cicatrisation permet de prévenir les défauts de régénération et de réparation tissulaire à l’origine des problèmes de cicatrisation.
 Le traitement est appliqué à l’aide d’un laser à main miniaturisé utilisé par les chirurgiens européens depuis fin 2008.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cicatrisation_assist%C3%A9e_par_laser</t>
+          <t>Cicatrisation_assistée_par_laser</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Validation clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’efficacité du traitement par LASH a été démontrée au travers de différentes études de cas et d’une étude clinique conduite sur de longues cicatrices horizontales de plasties abdominales[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’efficacité du traitement par LASH a été démontrée au travers de différentes études de cas et d’une étude clinique conduite sur de longues cicatrices horizontales de plasties abdominales.
 Cette étude clinique visait deux objectifs complémentaires : évaluer à la fois la sécurité mais aussi les bénéfices thérapeutiques et cosmétiques d’un traitement par un laser diode 810 nm associé à un bandelette de sécurité chargée de reconnaître, positionner, paramétrer et contrôler le traitement laser.
 Les résultats obtenus confirment les bénéfices apportés par la technologie LASH : un processus de cicatrisation accéléré, une réduction significative de la cicatrice résiduelle et une amélioration du confort postopératoire des patients. Ainsi, 12 mois après le traitement par laser, 83 % des patients témoignent d’une amélioration significative de la section traitée par laser comparée à la section non traitée.
 </t>
